--- a/mfi/bulkWork/files/bulk_deposit.xlsx
+++ b/mfi/bulkWork/files/bulk_deposit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sekani\mfi\bulkWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sekani\mfi\bulkWork\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0374EB2A-104C-4F79-8661-19979381EB08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14137B73-BDBA-4046-A444-124E0E341897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="6015" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Branch Name</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>teller id</t>
+  </si>
+  <si>
+    <t>payment type id</t>
   </si>
 </sst>
 </file>
@@ -375,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +393,7 @@
     <col min="7" max="7" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,6 +417,9 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
